--- a/Inputs/WTM_Inputs.xlsx
+++ b/Inputs/WTM_Inputs.xlsx
@@ -8,20 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\WTM-for-pymrio\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51C6E02-0BE5-48E2-A091-DF49A843DBD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220133FC-B57D-4255-A27C-BE66E5205EE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32415" yWindow="-3270" windowWidth="18405" windowHeight="10605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-17715" yWindow="1785" windowWidth="11790" windowHeight="6795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regional Endowments" sheetId="1" r:id="rId1"/>
     <sheet name="Global Price of factors" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="18">
   <si>
     <t>Europe</t>
   </si>
@@ -75,9 +86,6 @@
   </si>
   <si>
     <t>Mm3</t>
-  </si>
-  <si>
-    <t>Price of factors</t>
   </si>
 </sst>
 </file>
@@ -101,12 +109,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -141,8 +155,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,19 +497,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -507,164 +522,163 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>1000000000000</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>1000000000000</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>1000000000000</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>1000000000000</v>
       </c>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>866609.00000001502</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
+        <v>710074.666666643</v>
+      </c>
+      <c r="E3" s="2">
         <v>2956282.0889667799</v>
       </c>
-      <c r="E3" s="3">
-        <v>710074.666666643</v>
-      </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>935106.00000011944</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>1E+21</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>1E+21</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>1E+21</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>1E+21</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>22136160</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
+        <v>38664099</v>
+      </c>
+      <c r="E5" s="2">
         <v>31020731.899999999</v>
       </c>
-      <c r="E5" s="3">
-        <v>38664099</v>
-      </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>29649190</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>8666096.2309833504</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
+        <v>10449012.864391999</v>
+      </c>
+      <c r="E6" s="2">
         <v>23127467.680272602</v>
       </c>
-      <c r="E6" s="3">
-        <v>10449012.864391999</v>
-      </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>2779104.7035622108</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>931997.61500117322</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
+        <v>6852534.3193238704</v>
+      </c>
+      <c r="E7" s="2">
         <v>7860565.4721220797</v>
       </c>
-      <c r="E7" s="3">
-        <v>6852534.3193238704</v>
-      </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>1020737.6451927733</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>5177896.6507966248</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
+        <v>4622942.3621638967</v>
+      </c>
+      <c r="E8" s="2">
         <v>25578959.879521899</v>
       </c>
-      <c r="E8" s="3">
-        <v>4622942.3621638967</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>1845751.3549743255</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>2529000</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
+        <v>30843000</v>
+      </c>
+      <c r="E9" s="2">
         <v>35003000</v>
       </c>
-      <c r="E9" s="3">
-        <v>30843000</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>31776000</v>
       </c>
     </row>
@@ -675,24 +689,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -702,8 +725,17 @@
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -713,19 +745,37 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -735,8 +785,17 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -746,8 +805,17 @@
       <c r="C6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -757,8 +825,17 @@
       <c r="C7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -768,8 +845,17 @@
       <c r="C8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -777,6 +863,15 @@
         <v>17</v>
       </c>
       <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
         <v>0</v>
       </c>
     </row>
